--- a/biology/Botanique/Solanum_sect._Etuberosum/Solanum_sect._Etuberosum.xlsx
+++ b/biology/Botanique/Solanum_sect._Etuberosum/Solanum_sect._Etuberosum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La section Solanum sect. Etuberosum appartient au genre Solanum, sous-genre Potatoe, dans la famille des Solanaceae.
 Les trois espèces qui la composent sont originaires d'Amérique du Sud (Argentine et Chili).
@@ -514,18 +526,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Les espèces de la section etuberosum sont des plantes herbacées, à port dressé, dont les tiges ramifiées atteignent généralement un mètre de long.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de la section etuberosum sont des plantes herbacées, à port dressé, dont les tiges ramifiées atteignent généralement un mètre de long.
 Celles-ci, de couleur verte à pourpre, sont glabres à pubescentes, couvertes parfois de trichomes glandulaires.
 Ces plantes ont des rhizomes parfois ramifiés pouvant atteindre 10 cm de long et 1 cm de diamètre.
 Les feuilles alternes sont composées imparipennées et peuvent atteindre 35 cm de long sur 20 cm de large. Elles comptent quatre à sept paires de folioles entre lesquelles s'insèrent des folioles secondaires.
-Fleurs et inflorescences
-Les inflorescences pseudoterminales sont des panicules cymeuses comptant de douze à 65 fleurs.
-Les fleurs ont un calice ayant 2,5 à 4,2 mm de long, glabre ou pubescent, composé de cinq lobes pointus de 0,2 à 2,5 mm de long. La corolle, de couleur uniforme violet à bleu-violet, parfois marquée d'une étoile blanche rayonnant depuis le centre, est de forme arrondie à pentagonale et atteint un diamètre de 17 à 30 mm.
-Les anthères, lancéolées, ont de 4 à 7 mm de long. Le style mesure entre 3 et 11 mm de long. L'ovaire est sphérique.
-Fruits et graines
-Les fruits sont des baies globuleuses, de couleur verte à pourpre foncé, d'un diamètre de 13 à 23 mm.
-Les graines mûres à l'état frais sont entièrement blanches, ou blanches avec un point violet correspondant à l'embryon qui transparaît à travers le tégument.
 </t>
         </is>
       </c>
@@ -551,13 +561,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Distribution et habitat</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les espèces de la section sont originaires du Chili et d'Argentine, ainsi que de l'île Robinson Crusoe (dépendance du Chili) pour Solanum fernandezianum.
-Elles croissent dans les forêts humides de feuillus, le long des cours d'eau, entre 40 et 2 500 m d'altitude.
+          <t>Fleurs et inflorescences</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les inflorescences pseudoterminales sont des panicules cymeuses comptant de douze à 65 fleurs.
+Les fleurs ont un calice ayant 2,5 à 4,2 mm de long, glabre ou pubescent, composé de cinq lobes pointus de 0,2 à 2,5 mm de long. La corolle, de couleur uniforme violet à bleu-violet, parfois marquée d'une étoile blanche rayonnant depuis le centre, est de forme arrondie à pentagonale et atteint un diamètre de 17 à 30 mm.
+Les anthères, lancéolées, ont de 4 à 7 mm de long. Le style mesure entre 3 et 11 mm de long. L'ovaire est sphérique.
 </t>
         </is>
       </c>
@@ -583,14 +600,91 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fruits et graines</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits sont des baies globuleuses, de couleur verte à pourpre foncé, d'un diamètre de 13 à 23 mm.
+Les graines mûres à l'état frais sont entièrement blanches, ou blanches avec un point violet correspondant à l'embryon qui transparaît à travers le tégument.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Solanum_sect._Etuberosum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Solanum_sect._Etuberosum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution et habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de la section sont originaires du Chili et d'Argentine, ainsi que de l'île Robinson Crusoe (dépendance du Chili) pour Solanum fernandezianum.
+Elles croissent dans les forêts humides de feuillus, le long des cours d'eau, entre 40 et 2 500 m d'altitude.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Solanum_sect._Etuberosum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Solanum_sect._Etuberosum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Position de la section dans la classification
-La section Etuberosum est classée dans le sous-genre Potatoe du genre Solanum. Des études cladistiques, menées aussi bien au plan morphologique que moléculaire, ont permis de démontrer que la section est monophylétique.
-Le cladogramme suivant indique les relations avec les sections étroitement apparentées à la section Etuberosum[1] :
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Position de la section dans la classification</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La section Etuberosum est classée dans le sous-genre Potatoe du genre Solanum. Des études cladistiques, menées aussi bien au plan morphologique que moléculaire, ont permis de démontrer que la section est monophylétique.
+Le cladogramme suivant indique les relations avec les sections étroitement apparentées à la section Etuberosum :
        ┌───── Section Lycopersicoides
        │
     ┌──┤  ┌── Section Juglandifolia
@@ -600,9 +694,44 @@
 ─┤  └──────── Section Petota
  │
  └─────────── Section Etuberosum
-Cladogramme selon Peralta-Spooner-Knapp[1].
-Classification interne
-La section etuberosum regroupe trois espèces[2].
+Cladogramme selon Peralta-Spooner-Knapp.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Solanum_sect._Etuberosum</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Solanum_sect._Etuberosum</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Classification interne</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La section etuberosum regroupe trois espèces.
 Solanum etuberosum Lindl.
 Solanum fernandezianum Phil.
 Solanum palustre Schltdl.</t>
